--- a/output/paz con dignidad.xlsx
+++ b/output/paz con dignidad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -594,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +612,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,10 +721,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -814,15 +832,24 @@
         <v>0.008641464740757386</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>706396</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -921,15 +948,24 @@
         <v>0.008641464740757386</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>186285</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1028,15 +1064,24 @@
         <v>0.008641464740757386</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>294237</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1135,15 +1180,24 @@
         <v>0.008641464740757386</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>1313230</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1242,15 +1296,24 @@
         <v>0.008641464740757386</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1349,15 +1412,24 @@
         <v>0.008641464740757386</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>971444</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1456,15 +1528,24 @@
         <v>0.01003392293858942</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>247495</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1563,15 +1644,24 @@
         <v>0.01003392293858942</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>1616682</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1670,15 +1760,24 @@
         <v>0.01003392293858942</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>149452</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1777,15 +1876,24 @@
         <v>0.01003392293858942</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>323797</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1884,15 +1992,24 @@
         <v>0.01003392293858942</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>131231</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1991,15 +2108,24 @@
         <v>0.01003392293858942</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>680720</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2098,15 +2224,24 @@
         <v>0.01003392293858942</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>471509</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2205,15 +2340,24 @@
         <v>0.00792167009318741</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>26254912</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2312,15 +2456,24 @@
         <v>0.00792167009318741</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>1462972</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2419,15 +2572,24 @@
         <v>0.00792167009318741</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>101101</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2526,15 +2688,24 @@
         <v>0.00792167009318741</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>335342</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2633,15 +2804,24 @@
         <v>0.00792167009318741</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>41264613</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2740,15 +2920,24 @@
         <v>0.00792167009318741</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>48431510</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2847,15 +3036,24 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>164433.54</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2954,15 +3152,24 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>35000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3061,15 +3268,24 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>231960.4</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3168,15 +3384,24 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>19997</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3275,15 +3500,24 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>326562.5</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3382,15 +3616,24 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>164433.54</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3489,15 +3732,24 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3596,15 +3848,24 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>231960.4</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3703,15 +3964,24 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>19997</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3810,15 +4080,24 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>326562.5</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3917,15 +4196,24 @@
         <v>0.02885735867669173</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>254870.1</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4024,15 +4312,24 @@
         <v>0.02885735867669173</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>227408.875</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4131,15 +4428,24 @@
         <v>0.02885735867669173</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>109155</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4238,15 +4544,24 @@
         <v>0.02885735867669173</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>138619.125</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4345,15 +4660,24 @@
         <v>0.02885735867669173</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>222812.715</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4452,15 +4776,24 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>254870.1</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4559,15 +4892,24 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>227408.875</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4666,15 +5008,24 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>109155</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4773,15 +5124,24 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>138619.125</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4880,15 +5240,24 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>222812.715</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4987,15 +5356,24 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>455068</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5094,15 +5472,24 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>801298</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5201,15 +5588,24 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>185954</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5308,15 +5704,24 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>340000</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5415,9 +5820,18 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1997</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>756437</v>
       </c>
     </row>

--- a/output/paz con dignidad.xlsx
+++ b/output/paz con dignidad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -603,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,10 +736,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -790,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>32534</v>
+        <v>47654</v>
       </c>
       <c r="U2">
         <v>22</v>
@@ -826,30 +838,36 @@
         <v>4093293</v>
       </c>
       <c r="AG2">
-        <v>3764871</v>
+        <v>3779991</v>
       </c>
       <c r="AH2">
-        <v>0.008641464740757386</v>
+        <v>0.0126069083233267</v>
       </c>
       <c r="AI2">
+        <v>0.1595546126961678</v>
+      </c>
+      <c r="AJ2">
         <v>1997</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>706396</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -906,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>32534</v>
+        <v>47654</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -942,30 +960,36 @@
         <v>2565774</v>
       </c>
       <c r="AG3">
-        <v>3764871</v>
+        <v>3779991</v>
       </c>
       <c r="AH3">
-        <v>0.008641464740757386</v>
+        <v>0.0126069083233267</v>
       </c>
       <c r="AI3">
+        <v>0.1595546126961678</v>
+      </c>
+      <c r="AJ3">
         <v>1997</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>186285</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1022,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>32534</v>
+        <v>47654</v>
       </c>
       <c r="U4">
         <v>22</v>
@@ -1058,30 +1082,36 @@
         <v>4231773</v>
       </c>
       <c r="AG4">
-        <v>3764871</v>
+        <v>3779991</v>
       </c>
       <c r="AH4">
-        <v>0.008641464740757386</v>
+        <v>0.0126069083233267</v>
       </c>
       <c r="AI4">
+        <v>0.1595546126961678</v>
+      </c>
+      <c r="AJ4">
         <v>1997</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>294237</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1138,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>32534</v>
+        <v>47654</v>
       </c>
       <c r="U5">
         <v>22</v>
@@ -1174,30 +1204,36 @@
         <v>2282830</v>
       </c>
       <c r="AG5">
-        <v>3764871</v>
+        <v>3779991</v>
       </c>
       <c r="AH5">
-        <v>0.008641464740757386</v>
+        <v>0.0126069083233267</v>
       </c>
       <c r="AI5">
+        <v>0.1595546126961678</v>
+      </c>
+      <c r="AJ5">
         <v>1997</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>1313230</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1254,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>32534</v>
+        <v>47654</v>
       </c>
       <c r="U6">
         <v>22</v>
@@ -1290,30 +1326,36 @@
         <v>3433758</v>
       </c>
       <c r="AG6">
-        <v>3764871</v>
+        <v>3779991</v>
       </c>
       <c r="AH6">
-        <v>0.008641464740757386</v>
+        <v>0.0126069083233267</v>
       </c>
       <c r="AI6">
+        <v>0.1595546126961678</v>
+      </c>
+      <c r="AJ6">
         <v>1997</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1370,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>32534</v>
+        <v>47654</v>
       </c>
       <c r="U7">
         <v>22</v>
@@ -1406,30 +1448,36 @@
         <v>2656206</v>
       </c>
       <c r="AG7">
-        <v>3764871</v>
+        <v>3779991</v>
       </c>
       <c r="AH7">
-        <v>0.008641464740757386</v>
+        <v>0.0126069083233267</v>
       </c>
       <c r="AI7">
+        <v>0.1595546126961678</v>
+      </c>
+      <c r="AJ7">
         <v>1997</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>971444</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1486,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>46394</v>
+        <v>54536</v>
       </c>
       <c r="U8">
         <v>22</v>
@@ -1522,30 +1570,36 @@
         <v>11420820.66666667</v>
       </c>
       <c r="AG8">
-        <v>4623715</v>
+        <v>4631857</v>
       </c>
       <c r="AH8">
-        <v>0.01003392293858942</v>
+        <v>0.011774111333748</v>
       </c>
       <c r="AI8">
+        <v>0.03003007217191722</v>
+      </c>
+      <c r="AJ8">
         <v>1997</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>247495</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1602,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>46394</v>
+        <v>54536</v>
       </c>
       <c r="U9">
         <v>22</v>
@@ -1638,30 +1692,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG9">
-        <v>4623715</v>
+        <v>4631857</v>
       </c>
       <c r="AH9">
-        <v>0.01003392293858942</v>
+        <v>0.011774111333748</v>
       </c>
       <c r="AI9">
+        <v>0.03003007217191722</v>
+      </c>
+      <c r="AJ9">
         <v>1997</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>1616682</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1718,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>46394</v>
+        <v>54536</v>
       </c>
       <c r="U10">
         <v>22</v>
@@ -1754,30 +1814,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG10">
-        <v>4623715</v>
+        <v>4631857</v>
       </c>
       <c r="AH10">
-        <v>0.01003392293858942</v>
+        <v>0.011774111333748</v>
       </c>
       <c r="AI10">
+        <v>0.03003007217191722</v>
+      </c>
+      <c r="AJ10">
         <v>1997</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>149452</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1834,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>46394</v>
+        <v>54536</v>
       </c>
       <c r="U11">
         <v>22</v>
@@ -1870,30 +1936,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG11">
-        <v>4623715</v>
+        <v>4631857</v>
       </c>
       <c r="AH11">
-        <v>0.01003392293858942</v>
+        <v>0.011774111333748</v>
       </c>
       <c r="AI11">
+        <v>0.03003007217191722</v>
+      </c>
+      <c r="AJ11">
         <v>1997</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>323797</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1950,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>46394</v>
+        <v>54536</v>
       </c>
       <c r="U12">
         <v>22</v>
@@ -1986,30 +2058,36 @@
         <v>38993399</v>
       </c>
       <c r="AG12">
-        <v>4623715</v>
+        <v>4631857</v>
       </c>
       <c r="AH12">
-        <v>0.01003392293858942</v>
+        <v>0.011774111333748</v>
       </c>
       <c r="AI12">
+        <v>0.03003007217191722</v>
+      </c>
+      <c r="AJ12">
         <v>1997</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>131231</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2066,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>46394</v>
+        <v>54536</v>
       </c>
       <c r="U13">
         <v>22</v>
@@ -2102,30 +2180,36 @@
         <v>25548911</v>
       </c>
       <c r="AG13">
-        <v>4623715</v>
+        <v>4631857</v>
       </c>
       <c r="AH13">
-        <v>0.01003392293858942</v>
+        <v>0.011774111333748</v>
       </c>
       <c r="AI13">
+        <v>0.03003007217191722</v>
+      </c>
+      <c r="AJ13">
         <v>1997</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>680720</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2182,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>46394</v>
+        <v>54536</v>
       </c>
       <c r="U14">
         <v>22</v>
@@ -2218,30 +2302,36 @@
         <v>15091265.66666667</v>
       </c>
       <c r="AG14">
-        <v>4623715</v>
+        <v>4631857</v>
       </c>
       <c r="AH14">
-        <v>0.01003392293858942</v>
+        <v>0.011774111333748</v>
       </c>
       <c r="AI14">
+        <v>0.03003007217191722</v>
+      </c>
+      <c r="AJ14">
         <v>1997</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>471509</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2298,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>31033</v>
+        <v>66914</v>
       </c>
       <c r="U15">
         <v>20</v>
@@ -2334,30 +2424,36 @@
         <v>1441836</v>
       </c>
       <c r="AG15">
-        <v>3917482</v>
+        <v>3953363</v>
       </c>
       <c r="AH15">
-        <v>0.00792167009318741</v>
+        <v>0.01692584263069189</v>
       </c>
       <c r="AI15">
+        <v>0.03584264839833833</v>
+      </c>
+      <c r="AJ15">
         <v>1997</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>26254912</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2414,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>31033</v>
+        <v>66914</v>
       </c>
       <c r="U16">
         <v>20</v>
@@ -2450,30 +2546,36 @@
         <v>2407765</v>
       </c>
       <c r="AG16">
-        <v>3917482</v>
+        <v>3953363</v>
       </c>
       <c r="AH16">
-        <v>0.00792167009318741</v>
+        <v>0.01692584263069189</v>
       </c>
       <c r="AI16">
+        <v>0.03584264839833833</v>
+      </c>
+      <c r="AJ16">
         <v>1997</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>1462972</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2530,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>31033</v>
+        <v>66914</v>
       </c>
       <c r="U17">
         <v>20</v>
@@ -2566,30 +2668,36 @@
         <v>2140362</v>
       </c>
       <c r="AG17">
-        <v>3917482</v>
+        <v>3953363</v>
       </c>
       <c r="AH17">
-        <v>0.00792167009318741</v>
+        <v>0.01692584263069189</v>
       </c>
       <c r="AI17">
+        <v>0.03584264839833833</v>
+      </c>
+      <c r="AJ17">
         <v>1997</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>101101</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2646,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>31033</v>
+        <v>66914</v>
       </c>
       <c r="U18">
         <v>20</v>
@@ -2682,30 +2790,36 @@
         <v>2121035</v>
       </c>
       <c r="AG18">
-        <v>3917482</v>
+        <v>3953363</v>
       </c>
       <c r="AH18">
-        <v>0.00792167009318741</v>
+        <v>0.01692584263069189</v>
       </c>
       <c r="AI18">
+        <v>0.03584264839833833</v>
+      </c>
+      <c r="AJ18">
         <v>1997</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>335342</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2762,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>31033</v>
+        <v>66914</v>
       </c>
       <c r="U19">
         <v>20</v>
@@ -2798,30 +2912,36 @@
         <v>1772730</v>
       </c>
       <c r="AG19">
-        <v>3917482</v>
+        <v>3953363</v>
       </c>
       <c r="AH19">
-        <v>0.00792167009318741</v>
+        <v>0.01692584263069189</v>
       </c>
       <c r="AI19">
+        <v>0.03584264839833833</v>
+      </c>
+      <c r="AJ19">
         <v>1997</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>41264613</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2878,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>31033</v>
+        <v>66914</v>
       </c>
       <c r="U20">
         <v>20</v>
@@ -2914,30 +3034,36 @@
         <v>2473942</v>
       </c>
       <c r="AG20">
-        <v>3917482</v>
+        <v>3953363</v>
       </c>
       <c r="AH20">
-        <v>0.00792167009318741</v>
+        <v>0.01692584263069189</v>
       </c>
       <c r="AI20">
+        <v>0.03584264839833833</v>
+      </c>
+      <c r="AJ20">
         <v>1997</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>48431510</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3036,24 +3162,30 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI21">
+        <v>0.0986550842164125</v>
+      </c>
+      <c r="AJ21">
         <v>1997</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>164433.54</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3152,24 +3284,30 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI22">
+        <v>0.0986550842164125</v>
+      </c>
+      <c r="AJ22">
         <v>1997</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>35000</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3268,24 +3406,30 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI23">
+        <v>0.0986550842164125</v>
+      </c>
+      <c r="AJ23">
         <v>1997</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>231960.4</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3384,24 +3528,30 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI24">
+        <v>0.0986550842164125</v>
+      </c>
+      <c r="AJ24">
         <v>1997</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>19997</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3500,24 +3650,30 @@
         <v>0.028124737969183</v>
       </c>
       <c r="AI25">
+        <v>0.0986550842164125</v>
+      </c>
+      <c r="AJ25">
         <v>1997</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>326562.5</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3616,24 +3772,30 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
         <v>1997</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>164433.54</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3732,24 +3894,30 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
         <v>1997</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3848,24 +4016,30 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
         <v>1997</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>231960.4</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3964,24 +4138,30 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
         <v>1997</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>19997</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4080,24 +4260,30 @@
         <v>0.01974275343905171</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>1997</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>326562.5</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4154,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>19878.18</v>
+        <v>26466.71</v>
       </c>
       <c r="U31">
         <v>13</v>
@@ -4190,30 +4376,36 @@
         <v>10535466</v>
       </c>
       <c r="AG31">
-        <v>688842.67</v>
+        <v>695431.2</v>
       </c>
       <c r="AH31">
-        <v>0.02885735867669173</v>
+        <v>0.03805798474385388</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1997</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>254870.1</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4270,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>19878.18</v>
+        <v>26466.71</v>
       </c>
       <c r="U32">
         <v>13</v>
@@ -4306,30 +4498,36 @@
         <v>11105000</v>
       </c>
       <c r="AG32">
-        <v>688842.67</v>
+        <v>695431.2</v>
       </c>
       <c r="AH32">
-        <v>0.02885735867669173</v>
+        <v>0.03805798474385388</v>
       </c>
       <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1997</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>227408.875</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4386,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>19878.18</v>
+        <v>26466.71</v>
       </c>
       <c r="U33">
         <v>13</v>
@@ -4422,30 +4620,36 @@
         <v>8243214</v>
       </c>
       <c r="AG33">
-        <v>688842.67</v>
+        <v>695431.2</v>
       </c>
       <c r="AH33">
-        <v>0.02885735867669173</v>
+        <v>0.03805798474385388</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1997</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>109155</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4502,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>19878.18</v>
+        <v>26466.71</v>
       </c>
       <c r="U34">
         <v>13</v>
@@ -4538,30 +4742,36 @@
         <v>5988850</v>
       </c>
       <c r="AG34">
-        <v>688842.67</v>
+        <v>695431.2</v>
       </c>
       <c r="AH34">
-        <v>0.02885735867669173</v>
+        <v>0.03805798474385388</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1997</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>138619.125</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4618,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>19878.18</v>
+        <v>26466.71</v>
       </c>
       <c r="U35">
         <v>13</v>
@@ -4654,30 +4864,36 @@
         <v>6001329</v>
       </c>
       <c r="AG35">
-        <v>688842.67</v>
+        <v>695431.2</v>
       </c>
       <c r="AH35">
-        <v>0.02885735867669173</v>
+        <v>0.03805798474385388</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1997</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>222812.715</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4776,24 +4992,30 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI36">
+        <v>0.03414478813564765</v>
+      </c>
+      <c r="AJ36">
         <v>1997</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>254870.1</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4892,24 +5114,30 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI37">
+        <v>0.03414478813564765</v>
+      </c>
+      <c r="AJ37">
         <v>1997</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>227408.875</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5008,24 +5236,30 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI38">
+        <v>0.03414478813564765</v>
+      </c>
+      <c r="AJ38">
         <v>1997</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>109155</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5124,24 +5358,30 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI39">
+        <v>0.03414478813564765</v>
+      </c>
+      <c r="AJ39">
         <v>1997</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>138619.125</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5240,24 +5480,30 @@
         <v>0.05154438775547245</v>
       </c>
       <c r="AI40">
+        <v>0.03414478813564765</v>
+      </c>
+      <c r="AJ40">
         <v>1997</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>222812.715</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5356,24 +5602,30 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1997</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>455068</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5472,24 +5724,30 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1997</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>801298</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5588,24 +5846,30 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1997</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>185954</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5704,24 +5968,30 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1997</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>340000</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5820,18 +6090,24 @@
         <v>0.01115439367020161</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1997</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>756437</v>
       </c>
     </row>

--- a/output/paz con dignidad.xlsx
+++ b/output/paz con dignidad.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D2">
         <v>318497</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D5">
         <v>298874</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D24">
         <v>198440</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D34">
         <v>320000</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D38">
         <v>236414</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D39">
         <v>320000</v>
@@ -5509,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5875,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D44">
         <v>0</v>

--- a/output/paz con dignidad.xlsx
+++ b/output/paz con dignidad.xlsx
@@ -754,7 +754,7 @@
         <v>2934.187009790061</v>
       </c>
       <c r="D2">
-        <v>318497</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>483936</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>164433.54</v>
+        <v>26254912</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3801,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>35000</v>
+        <v>48431510</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>231960.4</v>
+        <v>41264613</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>19997</v>
+        <v>335342</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>326562.5</v>
+        <v>1462972</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>254870.1</v>
+        <v>231960.4</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>227408.875</v>
+        <v>326562.5</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>236414</v>
       </c>
       <c r="E38">
-        <v>109155</v>
+        <v>19997</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5262,16 +5262,16 @@
         <v>78</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>1384.519227335143</v>
       </c>
       <c r="D39">
-        <v>320000</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>138619.125</v>
+        <v>164433.54</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5387,13 +5387,13 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>222812.715</v>
+        <v>35000</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D45">
         <v>0</v>
